--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{205F076B-8C31-4156-A153-B0DBF0E4816E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DC6ADFF-AE6F-4F28-8DE3-D4FE7D0BF7D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="Customer valid discounts" sheetId="8" r:id="rId8"/>
     <sheet name="Customer invalid discounts" sheetId="10" r:id="rId9"/>
     <sheet name="Admin certificates" sheetId="11" r:id="rId10"/>
+    <sheet name="Admin certificates declines" sheetId="12" r:id="rId11"/>
+    <sheet name="Customer certificates" sheetId="13" r:id="rId12"/>
+    <sheet name="Customer certificates declines" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="956">
   <si>
     <t>id_testdata</t>
   </si>
@@ -2448,13 +2451,457 @@
   </si>
   <si>
     <t>38.86</t>
+  </si>
+  <si>
+    <t>GoDo-743</t>
+  </si>
+  <si>
+    <t>Thornton</t>
+  </si>
+  <si>
+    <t>GoDo-744</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>GoDo-745</t>
+  </si>
+  <si>
+    <t>Joann</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>GoDo-746</t>
+  </si>
+  <si>
+    <t>Garry</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>GoDo-747</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>GoDo-748</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>GoDo-749</t>
+  </si>
+  <si>
+    <t>Darla</t>
+  </si>
+  <si>
+    <t>Townsend</t>
+  </si>
+  <si>
+    <t>GoDo-750</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>GoDo-751</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Byrd</t>
+  </si>
+  <si>
+    <t>GoDo-752</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>godo-743ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-744ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-745ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-746ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-747ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-748ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-749ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-750ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-751ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-752ac@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-46</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>GoDo-47</t>
+  </si>
+  <si>
+    <t>de Medici</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>Marry-Key</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>URL_cert</t>
+  </si>
+  <si>
+    <t>godo-46ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-47ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-473ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-474ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-475ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-476ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-477ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-478ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-am_ex-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-479ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-discover-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-480-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-diners_club-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-481-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-unionpay-ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-482ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-483ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-484ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>https://dev.godo.io/customerGiftCertificate.aspx?company_guid=b7308a3a-448a-48f1-838f-c2d21d2c6037</t>
+  </si>
+  <si>
+    <t>Ghosts &amp; Spirits Walking Tour</t>
+  </si>
+  <si>
+    <t>Gray Line New Orleans - Walking Tour</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>94.34</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>167.48</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adults (12+) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children (6-12) </t>
+  </si>
+  <si>
+    <t>42.38</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>79.50</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>238.50</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Group (min of 10 adults)</t>
+  </si>
+  <si>
+    <t>242.5</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>257.05</t>
+  </si>
+  <si>
+    <t>52.98</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>GoDo-712</t>
+  </si>
+  <si>
+    <t>Emmett</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>GoDo-713</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>GoDo-714</t>
+  </si>
+  <si>
+    <t>Terrell</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>GoDo-715</t>
+  </si>
+  <si>
+    <t>Latoya</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>GoDo-716</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>GoDo-717</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>GoDo-718</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>GoDo-719</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>GoDo-720</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Mccarthy</t>
+  </si>
+  <si>
+    <t>GoDo-721</t>
+  </si>
+  <si>
+    <t>Laurie</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>godo-712ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-713ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-714ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-715ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-716ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-717ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-718ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-719ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-720ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-721ic@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2474,6 +2921,21 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2518,7 +2980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2537,6 +2999,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4315,9 +4782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,6 +5768,2209 @@
       <c r="V25" s="1" t="s">
         <v>117</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>843</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E10" t="s">
+        <v>845</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E11" t="s">
+        <v>846</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4B839-C73B-41C2-80DD-208DE6D431F6}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F2" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="5">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="5">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="5">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="31" style="5" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15" style="5" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="20" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="11" style="5" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="15" style="5" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="5" customWidth="1"/>
+    <col min="34" max="34" width="15" style="5" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="5" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="5">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="5">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10057,7 +12727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5157F94-0C19-4E79-93C8-C8C1FAC3D8AF}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11090,7 +13760,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2DC6ADFF-AE6F-4F28-8DE3-D4FE7D0BF7D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F57B1AD-03DE-40A1-883E-10955CC4D81B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,17 @@
     <sheet name="Admin certificates declines" sheetId="12" r:id="rId11"/>
     <sheet name="Customer certificates" sheetId="13" r:id="rId12"/>
     <sheet name="Customer certificates declines" sheetId="14" r:id="rId13"/>
+    <sheet name="Center payment types" sheetId="15" r:id="rId14"/>
+    <sheet name="Center declines" sheetId="16" r:id="rId15"/>
+    <sheet name="Center certificates" sheetId="17" r:id="rId16"/>
+    <sheet name="Center certificates declines" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1098">
   <si>
     <t>id_testdata</t>
   </si>
@@ -2895,6 +2899,432 @@
   </si>
   <si>
     <t>godo-721ic@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-315cb</t>
+  </si>
+  <si>
+    <t>GoDo-Cash -cb</t>
+  </si>
+  <si>
+    <t>GoDo-473cb</t>
+  </si>
+  <si>
+    <t>GoDo-474cb</t>
+  </si>
+  <si>
+    <t>GoDo-475cb</t>
+  </si>
+  <si>
+    <t>GoDo-476cb</t>
+  </si>
+  <si>
+    <t>GoDo-477cb</t>
+  </si>
+  <si>
+    <t>GoDo-478cb</t>
+  </si>
+  <si>
+    <t>GoDo-Am Express-cb</t>
+  </si>
+  <si>
+    <t>GoDo-479cb</t>
+  </si>
+  <si>
+    <t>GoDo-Discover-cb</t>
+  </si>
+  <si>
+    <t>GoDo-480cb</t>
+  </si>
+  <si>
+    <t>GoDo-Diners Club-cb</t>
+  </si>
+  <si>
+    <t>GoDo-481cb</t>
+  </si>
+  <si>
+    <t>GoDo-UnionPay-cb</t>
+  </si>
+  <si>
+    <t>GoDo-482cb</t>
+  </si>
+  <si>
+    <t>GoDo-483cb</t>
+  </si>
+  <si>
+    <t>GoDo-484cb</t>
+  </si>
+  <si>
+    <t>godo-315cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-cash-cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-473cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-474cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-475cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-476cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-477cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-478cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-am_ex_cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-479cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-discover_cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-480cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-diners_club_cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-481cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-unionpay_cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-482cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-483cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-484cb@mailinator.com</t>
+  </si>
+  <si>
+    <t>9:30 PM CT</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Tate</t>
+  </si>
+  <si>
+    <t>Percy</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Melba</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Lambert</t>
+  </si>
+  <si>
+    <t>Luther</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>$6.34</t>
+  </si>
+  <si>
+    <t>$5.14</t>
+  </si>
+  <si>
+    <t>$12.68</t>
+  </si>
+  <si>
+    <t>$10.28</t>
+  </si>
+  <si>
+    <t>$99.79</t>
+  </si>
+  <si>
+    <t>$77.59</t>
+  </si>
+  <si>
+    <t>$155.18</t>
+  </si>
+  <si>
+    <t>$199.58</t>
+  </si>
+  <si>
+    <t>GoDo-644</t>
+  </si>
+  <si>
+    <t>godo-644cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Reeves</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Thelma</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Blair</t>
+  </si>
+  <si>
+    <t>Maxine</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>GoDo-645</t>
+  </si>
+  <si>
+    <t>GoDo-646</t>
+  </si>
+  <si>
+    <t>GoDo-647</t>
+  </si>
+  <si>
+    <t>GoDo-649</t>
+  </si>
+  <si>
+    <t>GoDo-651</t>
+  </si>
+  <si>
+    <t>GoDo-652</t>
+  </si>
+  <si>
+    <t>GoDo-653</t>
+  </si>
+  <si>
+    <t>godo-645cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-646cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-647cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-649cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-651cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-652cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-653cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>GoDo-743-cc</t>
+  </si>
+  <si>
+    <t>GoDo-744-cc</t>
+  </si>
+  <si>
+    <t>GoDo-745-cc</t>
+  </si>
+  <si>
+    <t>GoDo-746-cc</t>
+  </si>
+  <si>
+    <t>GoDo-747-cc</t>
+  </si>
+  <si>
+    <t>GoDo-748-cc</t>
+  </si>
+  <si>
+    <t>GoDo-749-cc</t>
+  </si>
+  <si>
+    <t>GoDo-750-cc</t>
+  </si>
+  <si>
+    <t>GoDo-751-cc</t>
+  </si>
+  <si>
+    <t>GoDo-752-cc</t>
+  </si>
+  <si>
+    <t>godo-743cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-744cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-745cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-746cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-747cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-748cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-749cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-750cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-751cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-752cc@mailinator.com</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Roxanne</t>
+  </si>
+  <si>
+    <t>Mclaughlin</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Freda</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>Garcia</t>
   </si>
 </sst>
 </file>
@@ -7332,9 +7762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7971,6 +8401,3356 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F25" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
+  <dimension ref="A1:AA40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="N2" t="s">
+        <v>974</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="N3" t="s">
+        <v>975</v>
+      </c>
+      <c r="O3" s="1">
+        <v>35801</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N4" t="s">
+        <v>976</v>
+      </c>
+      <c r="O4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>978</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>979</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" t="s">
+        <v>980</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N9" t="s">
+        <v>981</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" t="s">
+        <v>982</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N11" t="s">
+        <v>983</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N12" t="s">
+        <v>984</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N13" t="s">
+        <v>985</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N14" t="s">
+        <v>986</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N15" t="s">
+        <v>987</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" t="s">
+        <v>988</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N17" t="s">
+        <v>989</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N18" t="s">
+        <v>990</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N19" t="s">
+        <v>991</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C91F198-B38A-4DA8-A78C-ABC8E5EDC3C9}">
+  <dimension ref="A1:AE17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="18" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R2" t="s">
+        <v>464</v>
+      </c>
+      <c r="S2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R3" t="s">
+        <v>465</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R4" t="s">
+        <v>466</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R5" t="s">
+        <v>467</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R7" t="s">
+        <v>469</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R8" t="s">
+        <v>470</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R9" t="s">
+        <v>471</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R10" t="s">
+        <v>471</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R11" t="s">
+        <v>472</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AF431-8396-45B8-B7F5-A36FBD82D208}">
+  <dimension ref="A1:V36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B5EB0-EC16-485B-8EB9-BF6E6861C707}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13757,10 +17537,10 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13931,6 +17711,9 @@
       <c r="AA2" s="1" t="s">
         <v>668</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC2" s="1" t="s">
         <v>165</v>
       </c>
@@ -13981,6 +17764,9 @@
       <c r="AA3" s="1" t="s">
         <v>668</v>
       </c>
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC3" s="1" t="s">
         <v>165</v>
       </c>
@@ -14031,6 +17817,9 @@
       <c r="AA4" s="1" t="s">
         <v>700</v>
       </c>
+      <c r="AB4" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC4" s="1" t="s">
         <v>701</v>
       </c>
@@ -14087,6 +17876,9 @@
       <c r="AA5" s="1" t="s">
         <v>661</v>
       </c>
+      <c r="AB5" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC5" s="1" t="s">
         <v>565</v>
       </c>
@@ -14137,6 +17929,9 @@
       <c r="AA6" s="1" t="s">
         <v>700</v>
       </c>
+      <c r="AB6" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC6" s="1" t="s">
         <v>701</v>
       </c>
@@ -14193,6 +17988,9 @@
       <c r="AA7" s="1" t="s">
         <v>711</v>
       </c>
+      <c r="AB7" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC7" s="1" t="s">
         <v>563</v>
       </c>
@@ -14249,6 +18047,9 @@
       <c r="AA8" s="1" t="s">
         <v>706</v>
       </c>
+      <c r="AB8" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AC8" s="1" t="s">
         <v>708</v>
       </c>
@@ -14298,6 +18099,9 @@
       </c>
       <c r="AA9" s="1" t="s">
         <v>700</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>701</v>

--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F57B1AD-03DE-40A1-883E-10955CC4D81B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2208E0D4-C816-4FE2-91EB-D83CDCFDA70C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="906" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,26 @@
     <sheet name="Admin valid discounts" sheetId="6" r:id="rId3"/>
     <sheet name="Admin invalid discounts" sheetId="7" r:id="rId4"/>
     <sheet name="Admin booking with certificates" sheetId="9" r:id="rId5"/>
-    <sheet name="Customer payment types" sheetId="4" r:id="rId6"/>
-    <sheet name="Customer declines" sheetId="5" r:id="rId7"/>
-    <sheet name="Customer valid discounts" sheetId="8" r:id="rId8"/>
-    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId9"/>
-    <sheet name="Admin certificates" sheetId="11" r:id="rId10"/>
-    <sheet name="Admin certificates declines" sheetId="12" r:id="rId11"/>
-    <sheet name="Customer certificates" sheetId="13" r:id="rId12"/>
-    <sheet name="Customer certificates declines" sheetId="14" r:id="rId13"/>
-    <sheet name="Center payment types" sheetId="15" r:id="rId14"/>
-    <sheet name="Center declines" sheetId="16" r:id="rId15"/>
-    <sheet name="Center certificates" sheetId="17" r:id="rId16"/>
-    <sheet name="Center certificates declines" sheetId="18" r:id="rId17"/>
+    <sheet name="Admin cert + discount" sheetId="19" r:id="rId6"/>
+    <sheet name="Admin certificates" sheetId="11" r:id="rId7"/>
+    <sheet name="Admin certificates declines" sheetId="12" r:id="rId8"/>
+    <sheet name="Customer payment types" sheetId="4" r:id="rId9"/>
+    <sheet name="Customer declines" sheetId="5" r:id="rId10"/>
+    <sheet name="Customer valid discounts" sheetId="8" r:id="rId11"/>
+    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId12"/>
+    <sheet name="Customer certificates" sheetId="13" r:id="rId13"/>
+    <sheet name="Customer certificates declines" sheetId="14" r:id="rId14"/>
+    <sheet name="Center payment types" sheetId="15" r:id="rId15"/>
+    <sheet name="Center declines" sheetId="16" r:id="rId16"/>
+    <sheet name="Center certificates" sheetId="17" r:id="rId17"/>
+    <sheet name="Center certificates declines" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="1180">
   <si>
     <t>id_testdata</t>
   </si>
@@ -3325,6 +3326,252 @@
   </si>
   <si>
     <t>Garcia</t>
+  </si>
+  <si>
+    <t>GoDo-21 GoDo-26</t>
+  </si>
+  <si>
+    <t>Gayle</t>
+  </si>
+  <si>
+    <t>Poole</t>
+  </si>
+  <si>
+    <t>godo-26ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>- $125.00</t>
+  </si>
+  <si>
+    <t>$875.00</t>
+  </si>
+  <si>
+    <t>GoDo-31 GoDo-33</t>
+  </si>
+  <si>
+    <t>$45.01</t>
+  </si>
+  <si>
+    <t>- $45.01</t>
+  </si>
+  <si>
+    <t>godo-33ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>GoDo-32 GoDo-34</t>
+  </si>
+  <si>
+    <t>godo-34ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$115.01</t>
+  </si>
+  <si>
+    <t>$3.50</t>
+  </si>
+  <si>
+    <t>$73.50</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>GoDo-35</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>godo-35ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>14304</t>
+  </si>
+  <si>
+    <t>11520</t>
+  </si>
+  <si>
+    <t>- $10.01</t>
+  </si>
+  <si>
+    <t>$10.01</t>
+  </si>
+  <si>
+    <t>$35.00</t>
+  </si>
+  <si>
+    <t>godo-38ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Mcdaniel</t>
+  </si>
+  <si>
+    <t>70125</t>
+  </si>
+  <si>
+    <t>$350.00</t>
+  </si>
+  <si>
+    <t>- $70.00</t>
+  </si>
+  <si>
+    <t>$9.90</t>
+  </si>
+  <si>
+    <t>$189.90</t>
+  </si>
+  <si>
+    <t>GoDo-38</t>
+  </si>
+  <si>
+    <t>Terrance</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>GoDo-39</t>
+  </si>
+  <si>
+    <t>godo-39ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>- $280.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>GoDo-40</t>
+  </si>
+  <si>
+    <t>godo-40ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>20$</t>
+  </si>
+  <si>
+    <t>$375.00</t>
+  </si>
+  <si>
+    <t>- $55.00</t>
+  </si>
+  <si>
+    <t>$16.50</t>
+  </si>
+  <si>
+    <t>$316.50</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>Fannie</t>
+  </si>
+  <si>
+    <t>GoDo-41</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>godo-41ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$175.00</t>
+  </si>
+  <si>
+    <t>- $155.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>GoDo-42</t>
+  </si>
+  <si>
+    <t>godo-42ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>- $175.00</t>
+  </si>
+  <si>
+    <t>$5.78</t>
+  </si>
+  <si>
+    <t>$110.78</t>
+  </si>
+  <si>
+    <t>GoDo-43</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>$210.00</t>
+  </si>
+  <si>
+    <t>- $35.00</t>
+  </si>
+  <si>
+    <t>- $140.00</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>godo-43ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-44</t>
+  </si>
+  <si>
+    <t>godo-44ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$8.53</t>
+  </si>
+  <si>
+    <t>$163.53</t>
+  </si>
+  <si>
+    <t>GoDo-45</t>
+  </si>
+  <si>
+    <t>godo-45ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>$195.00</t>
   </si>
 </sst>
 </file>
@@ -3410,7 +3657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3434,6 +3681,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5209,412 +5457,719 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="31" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>604</v>
+      <c r="B1" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>796</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>611</v>
+        <v>19</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>612</v>
+        <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>613</v>
+        <v>118</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>615</v>
+        <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>616</v>
+        <v>22</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>712</v>
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E2" t="s">
-        <v>787</v>
+        <v>422</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>715</v>
+        <v>423</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O2" t="s">
+        <v>580</v>
+      </c>
+      <c r="P2" s="1">
+        <v>35801</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>716</v>
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E3" t="s">
-        <v>788</v>
+        <v>422</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>719</v>
+        <v>423</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>625</v>
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>626</v>
+        <v>140</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>627</v>
+        <v>37</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>720</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" t="s">
-        <v>789</v>
+        <v>422</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>423</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O4" t="s">
+        <v>582</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>631</v>
+        <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>723</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>579</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>725</v>
+        <v>422</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E5" t="s">
-        <v>790</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>277</v>
+        <v>423</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>804</v>
+        <v>240</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O5" t="s">
+        <v>583</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>727</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>724</v>
+        <v>579</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>728</v>
+        <v>422</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E6" t="s">
-        <v>791</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>423</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>488</v>
+        <v>242</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O6" t="s">
+        <v>584</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>475</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>625</v>
+        <v>34</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>626</v>
+        <v>124</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>627</v>
+        <v>37</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>730</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>724</v>
+        <v>579</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E7" t="s">
-        <v>792</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>261</v>
+        <v>422</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>800</v>
+        <v>244</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>631</v>
+        <v>34</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>734</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E8" t="s">
-        <v>793</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>422</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O8" t="s">
+        <v>586</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>738</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>724</v>
+        <v>579</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>794</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O9" t="s">
+        <v>587</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E10" t="s">
-        <v>742</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>719</v>
+      <c r="K10" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O10" t="s">
+        <v>588</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>625</v>
+        <v>34</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>36</v>
@@ -5625,31 +6180,64 @@
       <c r="V10" s="1">
         <v>35801</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E11" t="s">
-        <v>745</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>719</v>
+        <v>422</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O11" t="s">
+        <v>589</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>625</v>
+        <v>34</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>36</v>
@@ -5660,544 +6248,39 @@
       <c r="V11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E12" t="s">
-        <v>748</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E13" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E14" t="s">
-        <v>754</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" t="s">
-        <v>756</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E16" t="s">
-        <v>760</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E17" t="s">
-        <v>763</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E18" t="s">
-        <v>766</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E19" t="s">
-        <v>769</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" t="s">
-        <v>774</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E22" t="s">
-        <v>777</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E23" t="s">
-        <v>780</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E24" t="s">
-        <v>783</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E25" t="s">
-        <v>786</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="X11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6206,569 +6289,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5157F94-0C19-4E79-93C8-C8C1FAC3D8AF}">
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="31" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="12.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>604</v>
+      <c r="B1" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>615</v>
+        <v>17</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>616</v>
+        <v>18</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S2" t="s">
+        <v>639</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S3" t="s">
+        <v>640</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E2" t="s">
-        <v>837</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S4" t="s">
+        <v>641</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="E3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="Z4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S5" t="s">
+        <v>642</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E4" t="s">
-        <v>839</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S6" t="s">
+        <v>643</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E5" t="s">
-        <v>840</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S7" t="s">
+        <v>644</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E6" t="s">
-        <v>841</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S8" t="s">
+        <v>645</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="Z8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S9" t="s">
+        <v>646</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E8" t="s">
-        <v>843</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="Z9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S10" t="s">
+        <v>647</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" t="s">
-        <v>844</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="Z10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="R11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S11" t="s">
+        <v>648</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E10" t="s">
-        <v>845</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="Z11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E11" t="s">
-        <v>846</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E25"/>
+      <c r="G12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R12" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S12" t="s">
+        <v>680</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S13" t="s">
+        <v>681</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6777,6 +7318,593 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A7A26-CD8B-4B4F-912F-0FE24C8401B2}">
+  <dimension ref="A1:AE9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S2" t="s">
+        <v>690</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S3" t="s">
+        <v>691</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S4" t="s">
+        <v>692</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S5" t="s">
+        <v>693</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S6" t="s">
+        <v>694</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S7" t="s">
+        <v>695</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S8" t="s">
+        <v>696</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S9" t="s">
+        <v>697</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4B839-C73B-41C2-80DD-208DE6D431F6}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -7758,13 +8886,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
@@ -9792,7 +10920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C91F198-B38A-4DA8-A78C-ABC8E5EDC3C9}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
@@ -10655,7 +11783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AF431-8396-45B8-B7F5-A36FBD82D208}">
   <dimension ref="A1:V36"/>
   <sheetViews>
@@ -11187,13 +12315,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B5EB0-EC16-485B-8EB9-BF6E6861C707}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14038,13 +15166,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32A0F9-21E4-4C85-9D6C-865B06BCC937}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14077,28 +15205,31 @@
     <col min="26" max="26" width="13.7109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="1" customWidth="1"/>
     <col min="28" max="28" width="15.42578125" style="1" customWidth="1"/>
-    <col min="29" max="31" width="21.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="37.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="1" customWidth="1"/>
     <col min="32" max="32" width="24.7109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="22.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="28.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="30.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="28.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5703125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="27.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="15.85546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="21.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17" style="1" customWidth="1"/>
-    <col min="48" max="48" width="18.140625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="34" width="23.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="37" max="38" width="28.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="15.85546875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="17" style="1" customWidth="1"/>
+    <col min="50" max="50" width="18.140625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14199,52 +15330,58 @@
         <v>621</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>598</v>
       </c>
@@ -14302,30 +15439,30 @@
       <c r="AC2" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>629</v>
       </c>
@@ -14392,50 +15529,405 @@
       <c r="AC3" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AV3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -14444,7 +15936,7 @@
       <c r="O10" s="5"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -14454,7 +15946,7 @@
       <c r="R11"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -14464,21 +15956,21 @@
       <c r="R12"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -14492,6 +15984,2519 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D46B5-68C3-4B80-978A-569F30D335EB}">
+  <dimension ref="A1:AX15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="37.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="37" max="38" width="28.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="15.85546875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="17" style="1" customWidth="1"/>
+    <col min="50" max="50" width="18.140625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="N2" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="N3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="N4" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="N5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="N6" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="N7" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AM7" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="N8" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="N9" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="R11"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="R12"/>
+      <c r="AB12" s="8"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E11" t="s">
+        <v>745</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E14" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>756</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E16" t="s">
+        <v>760</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E19" t="s">
+        <v>769</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" t="s">
+        <v>774</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" t="s">
+        <v>777</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E23" t="s">
+        <v>780</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E25" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>843</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E10" t="s">
+        <v>845</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E11" t="s">
+        <v>846</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
@@ -15669,2452 +19674,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O2" t="s">
-        <v>580</v>
-      </c>
-      <c r="P2" s="1">
-        <v>35801</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1">
-        <v>35801</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O3" t="s">
-        <v>581</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O4" t="s">
-        <v>582</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O5" t="s">
-        <v>583</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O6" t="s">
-        <v>584</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O7" t="s">
-        <v>585</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O8" t="s">
-        <v>586</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O9" t="s">
-        <v>587</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O10" t="s">
-        <v>588</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="1">
-        <v>35801</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N11" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="O11" t="s">
-        <v>589</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5157F94-0C19-4E79-93C8-C8C1FAC3D8AF}">
-  <dimension ref="A1:AE13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="12.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S2" t="s">
-        <v>639</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S3" t="s">
-        <v>640</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="R4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S4" t="s">
-        <v>641</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="R5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S5" t="s">
-        <v>642</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S6" t="s">
-        <v>643</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="R7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S7" t="s">
-        <v>644</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S8" t="s">
-        <v>645</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S9" t="s">
-        <v>646</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R10" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S10" t="s">
-        <v>647</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="R11" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S11" t="s">
-        <v>648</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="R12" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S12" t="s">
-        <v>680</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="R13" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S13" t="s">
-        <v>681</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A7A26-CD8B-4B4F-912F-0FE24C8401B2}">
-  <dimension ref="A1:AE9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S2" t="s">
-        <v>690</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S3" t="s">
-        <v>691</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="R4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S4" t="s">
-        <v>692</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="R5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S5" t="s">
-        <v>693</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="R6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S6" t="s">
-        <v>694</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="R7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S7" t="s">
-        <v>695</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="R8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S8" t="s">
-        <v>696</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="R9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S9" t="s">
-        <v>697</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10E90AE7-767B-48C8-9741-7E86E5406A8A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49636D5D-B9DB-46ED-9097-14017DE4AD1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -15,30 +15,31 @@
     <sheet name="Admin invalid discounts" sheetId="7" r:id="rId5"/>
     <sheet name="Admin booking with certificates" sheetId="9" r:id="rId6"/>
     <sheet name="Admin cert + discount" sheetId="19" r:id="rId7"/>
-    <sheet name="Admin certificates" sheetId="11" r:id="rId8"/>
-    <sheet name="Admin certificates declines" sheetId="12" r:id="rId9"/>
-    <sheet name="Customer payment types" sheetId="4" r:id="rId10"/>
-    <sheet name="Customer declines" sheetId="5" r:id="rId11"/>
-    <sheet name="Customer not finished" sheetId="23" r:id="rId12"/>
-    <sheet name="Customer valid discounts" sheetId="8" r:id="rId13"/>
-    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId14"/>
-    <sheet name="Customer certificates" sheetId="13" r:id="rId15"/>
-    <sheet name="Customer certificates declines" sheetId="14" r:id="rId16"/>
-    <sheet name="Customer booking with cert" sheetId="20" r:id="rId17"/>
-    <sheet name="Customer booking cert + disc" sheetId="25" r:id="rId18"/>
-    <sheet name="Center payment types" sheetId="15" r:id="rId19"/>
-    <sheet name="Center declines" sheetId="16" r:id="rId20"/>
-    <sheet name="Center certificates" sheetId="17" r:id="rId21"/>
-    <sheet name="Center certificates declines" sheetId="18" r:id="rId22"/>
-    <sheet name="Failed declines" sheetId="21" r:id="rId23"/>
-    <sheet name="Emails table" sheetId="24" r:id="rId24"/>
+    <sheet name="Admin groupon" sheetId="26" r:id="rId8"/>
+    <sheet name="Admin certificates" sheetId="11" r:id="rId9"/>
+    <sheet name="Admin certificates declines" sheetId="12" r:id="rId10"/>
+    <sheet name="Customer payment types" sheetId="4" r:id="rId11"/>
+    <sheet name="Customer declines" sheetId="5" r:id="rId12"/>
+    <sheet name="Customer not finished" sheetId="23" r:id="rId13"/>
+    <sheet name="Customer valid discounts" sheetId="8" r:id="rId14"/>
+    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId15"/>
+    <sheet name="Customer certificates" sheetId="13" r:id="rId16"/>
+    <sheet name="Customer certificates declines" sheetId="14" r:id="rId17"/>
+    <sheet name="Customer booking with cert" sheetId="20" r:id="rId18"/>
+    <sheet name="Customer booking cert + disc" sheetId="25" r:id="rId19"/>
+    <sheet name="Center payment types" sheetId="15" r:id="rId20"/>
+    <sheet name="Center declines" sheetId="16" r:id="rId21"/>
+    <sheet name="Center certificates" sheetId="17" r:id="rId22"/>
+    <sheet name="Center certificates declines" sheetId="18" r:id="rId23"/>
+    <sheet name="Failed declines" sheetId="21" r:id="rId24"/>
+    <sheet name="Emails table" sheetId="24" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="1475">
   <si>
     <t>id_testdata</t>
   </si>
@@ -4175,6 +4176,294 @@
   </si>
   <si>
     <t>000</t>
+  </si>
+  <si>
+    <t>GoDo-799</t>
+  </si>
+  <si>
+    <t>1:00 PM CT</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>godo-799ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$150.00</t>
+  </si>
+  <si>
+    <t>- $150.00</t>
+  </si>
+  <si>
+    <t>groupon_name</t>
+  </si>
+  <si>
+    <t>General, min 2</t>
+  </si>
+  <si>
+    <t>GoDo-800</t>
+  </si>
+  <si>
+    <t>godo-800ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$225.00</t>
+  </si>
+  <si>
+    <t>- $225.00</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>GoDo-803</t>
+  </si>
+  <si>
+    <t>godo-803ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>General, max 10</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>$775.00</t>
+  </si>
+  <si>
+    <t>- $775.00</t>
+  </si>
+  <si>
+    <t>GoDo-804</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>godo-804ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>- $875.00</t>
+  </si>
+  <si>
+    <t>GoDo-807</t>
+  </si>
+  <si>
+    <t>godo-807ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Valid for Voodoo</t>
+  </si>
+  <si>
+    <t>- $24.99</t>
+  </si>
+  <si>
+    <t>GoDo-811</t>
+  </si>
+  <si>
+    <t>godo-811ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$75.00</t>
+  </si>
+  <si>
+    <t>- $75.00</t>
+  </si>
+  <si>
+    <t>Default expiration</t>
+  </si>
+  <si>
+    <t>GoDo-812</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>godo-812ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-820</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>godo-820ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Days Booked In Advance = 1</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Blackout date exceptions</t>
+  </si>
+  <si>
+    <t>GoDo-822 part 1</t>
+  </si>
+  <si>
+    <t>GoDo-822 part 2</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>godo-822-1ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-822-2ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-798</t>
+  </si>
+  <si>
+    <t>godo-798ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Inactive groupon</t>
+  </si>
+  <si>
+    <t>$5.50</t>
+  </si>
+  <si>
+    <t>$105.50</t>
+  </si>
+  <si>
+    <t>GoDo-801</t>
+  </si>
+  <si>
+    <t>godo-801ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>GoDo-805</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>godo-805ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>$1,100.00</t>
+  </si>
+  <si>
+    <t>$60.50</t>
+  </si>
+  <si>
+    <t>$1,160.50</t>
+  </si>
+  <si>
+    <t>GoDo-808</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>godo-808ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-813</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>godo-813ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-821 part 1</t>
+  </si>
+  <si>
+    <t>GoDo-821 part 2</t>
+  </si>
+  <si>
+    <t>godo-821-1ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-821-2ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>GoDo-870</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>godo-870ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>NOTEXIST</t>
+  </si>
+  <si>
+    <t>GoDo-819</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>godo-819ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Days Booked In Advance = 0</t>
+  </si>
+  <si>
+    <t>GoDo-809</t>
+  </si>
+  <si>
+    <t>GoDo-810</t>
+  </si>
+  <si>
+    <t>godo-809ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-810ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>1:00 AM CT</t>
+  </si>
+  <si>
+    <t>GoDo-818</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>godo-818ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -4640,10 +4929,10 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N19"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,6 +6363,501 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E6" t="s">
+        <v>843</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E9" t="s">
+        <v>846</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
@@ -7253,7 +8037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -7949,7 +8733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D291D8-D7EB-4761-A388-783D2E185CA1}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
@@ -8617,7 +9401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5157F94-0C19-4E79-93C8-C8C1FAC3D8AF}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -9646,7 +10430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A7A26-CD8B-4B4F-912F-0FE24C8401B2}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
@@ -10233,7 +11017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4B839-C73B-41C2-80DD-208DE6D431F6}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -11215,7 +11999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -11777,15 +12561,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5B620-B0D6-437E-AF7B-E893E6927C23}">
   <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12971,7 +13755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66885A8D-1970-49DC-A0CB-66F933E2B20D}">
   <dimension ref="A1:BC17"/>
   <sheetViews>
@@ -14990,1390 +15774,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
-  <dimension ref="A1:AA40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="N2" t="s">
-        <v>974</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="N3" t="s">
-        <v>975</v>
-      </c>
-      <c r="O3" s="1">
-        <v>35801</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="N4" t="s">
-        <v>976</v>
-      </c>
-      <c r="O4" s="1">
-        <v>35801</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="1">
-        <v>35801</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N6" t="s">
-        <v>978</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N7" t="s">
-        <v>979</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N8" t="s">
-        <v>980</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N9" t="s">
-        <v>981</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="N10" t="s">
-        <v>982</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N11" t="s">
-        <v>983</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="1">
-        <v>35801</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N12" t="s">
-        <v>984</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="1">
-        <v>35801</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N13" t="s">
-        <v>985</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N14" t="s">
-        <v>986</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N15" t="s">
-        <v>987</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N16" t="s">
-        <v>988</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N17" t="s">
-        <v>989</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N18" t="s">
-        <v>990</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="N19" t="s">
-        <v>991</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="N36"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="N37"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE15"/>
@@ -17102,6 +16502,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
+  <dimension ref="A1:AA40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="N2" t="s">
+        <v>974</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="N3" t="s">
+        <v>975</v>
+      </c>
+      <c r="O3" s="1">
+        <v>35801</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N4" t="s">
+        <v>976</v>
+      </c>
+      <c r="O4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>978</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>979</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" t="s">
+        <v>980</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N9" t="s">
+        <v>981</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" t="s">
+        <v>982</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N11" t="s">
+        <v>983</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N12" t="s">
+        <v>984</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N13" t="s">
+        <v>985</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N14" t="s">
+        <v>986</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N15" t="s">
+        <v>987</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" t="s">
+        <v>988</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N17" t="s">
+        <v>989</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N18" t="s">
+        <v>990</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N19" t="s">
+        <v>991</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C91F198-B38A-4DA8-A78C-ABC8E5EDC3C9}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
@@ -17828,7 +18612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AF431-8396-45B8-B7F5-A36FBD82D208}">
   <dimension ref="A1:V36"/>
   <sheetViews>
@@ -18360,7 +19144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B5EB0-EC16-485B-8EB9-BF6E6861C707}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -18855,7 +19639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB1861-4C9E-41AD-B401-5FCF8E78F9CE}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
@@ -20066,7 +20850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435D0C8-2A67-4DFF-8E91-310A628ECB70}">
   <dimension ref="A1:B211"/>
   <sheetViews>
@@ -21920,7 +22704,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2:R11"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22694,10 +23478,10 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2:R9"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23332,10 +24116,10 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24154,7 +24938,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2:R9"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25092,12 +25876,1556 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC1DC35-C6C2-40B8-AE11-AD6A7D57D017}">
+  <dimension ref="A1:AG23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="N2" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="N3" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="N4" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="N5" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="N6" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="N9" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="N12" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="N13" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="N14" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="N15" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="N19" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" t="s">
+        <v>1458</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="N20" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="N21" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="N22" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="N23" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" t="s">
+        <v>1473</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2:E25"/>
+      <selection pane="topRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26086,499 +28414,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
-  <dimension ref="A1:V23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="31" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E2" t="s">
-        <v>839</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E4" t="s">
-        <v>841</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E5" t="s">
-        <v>842</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E6" t="s">
-        <v>843</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E7" t="s">
-        <v>844</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E8" t="s">
-        <v>845</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E9" t="s">
-        <v>846</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49636D5D-B9DB-46ED-9097-14017DE4AD1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6128950-C443-4953-8DAA-967E862F6045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,20 @@
     <sheet name="Customer certificates declines" sheetId="14" r:id="rId17"/>
     <sheet name="Customer booking with cert" sheetId="20" r:id="rId18"/>
     <sheet name="Customer booking cert + disc" sheetId="25" r:id="rId19"/>
-    <sheet name="Center payment types" sheetId="15" r:id="rId20"/>
-    <sheet name="Center declines" sheetId="16" r:id="rId21"/>
-    <sheet name="Center certificates" sheetId="17" r:id="rId22"/>
-    <sheet name="Center certificates declines" sheetId="18" r:id="rId23"/>
-    <sheet name="Failed declines" sheetId="21" r:id="rId24"/>
-    <sheet name="Emails table" sheetId="24" r:id="rId25"/>
+    <sheet name="Customer groupon" sheetId="27" r:id="rId20"/>
+    <sheet name="Center payment types" sheetId="15" r:id="rId21"/>
+    <sheet name="Center declines" sheetId="16" r:id="rId22"/>
+    <sheet name="Center certificates" sheetId="17" r:id="rId23"/>
+    <sheet name="Center certificates declines" sheetId="18" r:id="rId24"/>
+    <sheet name="Failed declines" sheetId="21" r:id="rId25"/>
+    <sheet name="Emails table" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1541">
   <si>
     <t>id_testdata</t>
   </si>
@@ -2735,15 +2736,6 @@
     <t>42.38</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>28.62</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -4464,6 +4456,213 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>https://dev.godo.io/customer_facing.aspx?activity=a29b7b62-fcbd-42f6-96e7-2071f0eb79e4</t>
+  </si>
+  <si>
+    <t>02:00 PM</t>
+  </si>
+  <si>
+    <t>GoDo-828</t>
+  </si>
+  <si>
+    <t>godo-828ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Rowe</t>
+  </si>
+  <si>
+    <t>GoDo-830</t>
+  </si>
+  <si>
+    <t>godo-830ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>-200.00</t>
+  </si>
+  <si>
+    <t>-300.00</t>
+  </si>
+  <si>
+    <t>GoDo-832</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Glenda</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>godo-832ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>-700.00</t>
+  </si>
+  <si>
+    <t>GoDo-833</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>godo-833ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>-750.00</t>
+  </si>
+  <si>
+    <t>GoDo-835</t>
+  </si>
+  <si>
+    <t>godo-835ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>-24.99</t>
+  </si>
+  <si>
+    <t>Deanna</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>GoDo-839</t>
+  </si>
+  <si>
+    <t>godo-839ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>-100.00</t>
+  </si>
+  <si>
+    <t>GoDo-840</t>
+  </si>
+  <si>
+    <t>Wm</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>godo-840ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-844</t>
+  </si>
+  <si>
+    <t>godo-844ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>GoDo-824</t>
+  </si>
+  <si>
+    <t>godo-824ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>GoDo-831</t>
+  </si>
+  <si>
+    <t>godo-831ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
+  </si>
+  <si>
+    <t>GoDo-834</t>
+  </si>
+  <si>
+    <t>Shaun</t>
+  </si>
+  <si>
+    <t>Wilt</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>godo-834ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>986.00</t>
+  </si>
+  <si>
+    <t>GoDo-836</t>
+  </si>
+  <si>
+    <t>Richelle</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>godo-836ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-841</t>
+  </si>
+  <si>
+    <t>Hilma</t>
+  </si>
+  <si>
+    <t>Reddick</t>
+  </si>
+  <si>
+    <t>godo-841ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-871</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Gaskin</t>
+  </si>
+  <si>
+    <t>godo-871ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-842</t>
+  </si>
+  <si>
+    <t>Agripina</t>
+  </si>
+  <si>
+    <t>Hooper</t>
+  </si>
+  <si>
+    <t>godo-842ib@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -6862,10 +7061,10 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8045,7 +8244,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:O9"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,13 +9079,13 @@
         <v>778</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="N2" s="1">
         <v>15044466025</v>
       </c>
       <c r="O2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>56</v>
@@ -8942,16 +9141,16 @@
         <v>689</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="N3" s="1">
         <v>15044466025</v>
       </c>
       <c r="O3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>57</v>
@@ -9007,16 +9206,16 @@
         <v>689</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="N4" s="1">
         <v>15044466025</v>
       </c>
       <c r="O4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>58</v>
@@ -9072,16 +9271,16 @@
         <v>689</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="N5" s="1">
         <v>15044466025</v>
       </c>
       <c r="O5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>59</v>
@@ -9137,16 +9336,16 @@
         <v>689</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="N6" s="1">
         <v>15044466025</v>
       </c>
       <c r="O6" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>59</v>
@@ -9202,16 +9401,16 @@
         <v>689</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="N7" s="1">
         <v>15044466025</v>
       </c>
       <c r="O7" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>60</v>
@@ -9267,16 +9466,16 @@
         <v>689</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="N8" s="1">
         <v>15044466025</v>
       </c>
       <c r="O8" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>60</v>
@@ -9332,16 +9531,16 @@
         <v>689</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="N9" s="1">
         <v>15044466025</v>
       </c>
       <c r="O9" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>61</v>
@@ -9409,7 +9608,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11023,7 +11222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9:J9"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11590,7 +11789,7 @@
         <v>166</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>486</v>
@@ -11713,13 +11912,13 @@
         <v>877</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>884</v>
@@ -11760,13 +11959,13 @@
         <v>878</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>303</v>
+        <v>858</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>913</v>
+        <v>166</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>912</v>
+        <v>859</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>884</v>
@@ -11810,13 +12009,13 @@
         <v>879</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>798</v>
@@ -11857,13 +12056,13 @@
         <v>880</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>798</v>
@@ -11945,13 +12144,13 @@
         <v>882</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>885</v>
@@ -11960,7 +12159,7 @@
         <v>277</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>116</v>
@@ -12003,9 +12202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12117,7 +12316,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>883</v>
@@ -12126,22 +12325,22 @@
         <v>605</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>922</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>948</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>925</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>129</v>
@@ -12161,7 +12360,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>883</v>
@@ -12170,22 +12369,22 @@
         <v>605</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>131</v>
@@ -12205,7 +12404,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>883</v>
@@ -12214,13 +12413,13 @@
         <v>605</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>855</v>
@@ -12249,7 +12448,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>883</v>
@@ -12258,13 +12457,13 @@
         <v>605</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>855</v>
@@ -12293,7 +12492,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>883</v>
@@ -12305,19 +12504,19 @@
         <v>210</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>884</v>
@@ -12346,7 +12545,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>883</v>
@@ -12355,22 +12554,22 @@
         <v>724</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>303</v>
+        <v>858</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>913</v>
+        <v>166</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>912</v>
+        <v>859</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>884</v>
@@ -12399,7 +12598,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>883</v>
@@ -12408,22 +12607,22 @@
         <v>724</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>798</v>
@@ -12452,7 +12651,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>883</v>
@@ -12461,22 +12660,22 @@
         <v>724</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>798</v>
@@ -12566,10 +12765,10 @@
   <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12689,7 +12888,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>19</v>
@@ -12793,7 +12992,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>637</v>
@@ -12808,25 +13007,25 @@
         <v>507</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="R2" s="1">
         <v>15044466025</v>
       </c>
       <c r="S2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="T2" s="1">
         <v>35801</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>313</v>
@@ -12879,15 +13078,15 @@
         <v>40</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>637</v>
@@ -12914,19 +13113,19 @@
         <v>475</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="R3" s="1">
         <v>15044466025</v>
       </c>
       <c r="S3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="T3" s="1">
         <v>35801</v>
@@ -12935,7 +13134,7 @@
         <v>574</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>163</v>
@@ -12978,22 +13177,22 @@
         <v>628</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="BB3" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>637</v>
@@ -13020,19 +13219,19 @@
         <v>475</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="R4" s="1">
         <v>15044466025</v>
       </c>
       <c r="S4" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="T4" s="1">
         <v>35801</v>
@@ -13041,7 +13240,7 @@
         <v>574</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>163</v>
@@ -13096,7 +13295,7 @@
         <v>628</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9" t="s">
@@ -13106,15 +13305,15 @@
         <v>576</v>
       </c>
       <c r="BB4" s="9" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>482</v>
@@ -13138,28 +13337,28 @@
         <v>475</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="R5" s="1">
         <v>15044466025</v>
       </c>
       <c r="S5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="T5" s="1">
         <v>35801</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>163</v>
@@ -13214,25 +13413,25 @@
         <v>628</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>482</v>
@@ -13256,7 +13455,7 @@
         <v>475</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>209</v>
@@ -13268,16 +13467,16 @@
         <v>15044466025</v>
       </c>
       <c r="S6" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="T6" s="1">
         <v>35801</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>163</v>
@@ -13332,25 +13531,25 @@
         <v>628</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>482</v>
@@ -13374,10 +13573,10 @@
         <v>475</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>821</v>
@@ -13386,7 +13585,7 @@
         <v>15044466025</v>
       </c>
       <c r="S7" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="T7" s="1">
         <v>35801</v>
@@ -13407,19 +13606,19 @@
         <v>55</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="AF7" s="15" t="s">
         <v>883</v>
@@ -13465,25 +13664,25 @@
         <v>628</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>482</v>
@@ -13507,19 +13706,19 @@
         <v>475</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="R8" s="1">
         <v>15044466025</v>
       </c>
       <c r="S8" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="T8" s="1">
         <v>35801</v>
@@ -13597,10 +13796,10 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>482</v>
@@ -13612,19 +13811,19 @@
         <v>473</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="R9" s="1">
         <v>15044466025</v>
       </c>
       <c r="S9" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="T9" s="1">
         <v>35801</v>
@@ -13676,7 +13875,7 @@
         <v>628</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
@@ -13684,15 +13883,15 @@
         <v>170</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>482</v>
@@ -13704,10 +13903,10 @@
         <v>473</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>203</v>
@@ -13716,13 +13915,13 @@
         <v>15044466025</v>
       </c>
       <c r="S10" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="T10" s="1">
         <v>35801</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>562</v>
@@ -13883,7 +14082,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>18</v>
@@ -13990,10 +14189,10 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>482</v>
@@ -14017,25 +14216,25 @@
         <v>475</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="R2" s="1">
         <v>15044466025</v>
       </c>
       <c r="S2" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="T2" s="1">
         <v>35801</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>34</v>
@@ -14053,19 +14252,19 @@
         <v>55</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>1294</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>883</v>
@@ -14105,10 +14304,10 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>482</v>
@@ -14132,10 +14331,10 @@
         <v>475</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>371</v>
@@ -14144,13 +14343,13 @@
         <v>15044466025</v>
       </c>
       <c r="S3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="T3" s="1">
         <v>35801</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>34</v>
@@ -14168,19 +14367,19 @@
         <v>55</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AG3" s="15" t="s">
         <v>883</v>
@@ -14220,10 +14419,10 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>482</v>
@@ -14247,31 +14446,31 @@
         <v>475</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="R4" s="1">
         <v>15044466025</v>
       </c>
       <c r="S4" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="T4" s="1">
         <v>35801</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>163</v>
@@ -14309,7 +14508,7 @@
       </c>
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="BB4" s="9" t="s">
         <v>851</v>
@@ -14320,10 +14519,10 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>482</v>
@@ -14341,31 +14540,31 @@
         <v>475</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="R5" s="1">
         <v>15044466025</v>
       </c>
       <c r="S5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="T5" s="1">
         <v>35801</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>163</v>
@@ -14403,7 +14602,7 @@
       </c>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="BB5" s="9" t="s">
         <v>851</v>
@@ -14414,10 +14613,10 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>482</v>
@@ -14435,25 +14634,25 @@
         <v>474</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>778</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="R6" s="1">
         <v>15044466025</v>
       </c>
       <c r="S6" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="T6" s="1">
         <v>35801</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>34</v>
@@ -14471,19 +14670,19 @@
         <v>55</v>
       </c>
       <c r="AB6" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>1330</v>
       </c>
       <c r="AG6" s="15" t="s">
         <v>883</v>
@@ -14523,25 +14722,25 @@
         <v>628</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>482</v>
@@ -14559,19 +14758,19 @@
         <v>474</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="R7" s="1">
         <v>15044466025</v>
       </c>
       <c r="S7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="T7" s="1">
         <v>35801</v>
@@ -14595,19 +14794,19 @@
         <v>55</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="AG7" s="15" t="s">
         <v>883</v>
@@ -14647,25 +14846,25 @@
         <v>628</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC7" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>482</v>
@@ -14683,10 +14882,10 @@
         <v>474</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>238</v>
@@ -14695,19 +14894,19 @@
         <v>15044466025</v>
       </c>
       <c r="S8" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="T8" s="1">
         <v>35801</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>163</v>
@@ -14756,25 +14955,25 @@
         <v>628</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="9" t="s">
         <v>479</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC8" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>482</v>
@@ -14792,31 +14991,31 @@
         <v>474</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="R9" s="1">
         <v>15044466025</v>
       </c>
       <c r="S9" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="T9" s="1">
         <v>35801</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>163</v>
@@ -14865,25 +15064,25 @@
         <v>628</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC9" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>482</v>
@@ -14907,25 +15106,25 @@
         <v>475</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="R10" s="1">
         <v>15044466025</v>
       </c>
       <c r="S10" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="T10" s="1">
         <v>35801</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>34</v>
@@ -14943,19 +15142,19 @@
         <v>55</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AC10" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AF10" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>1294</v>
       </c>
       <c r="AG10" s="15" t="s">
         <v>883</v>
@@ -14995,10 +15194,10 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>482</v>
@@ -15022,25 +15221,25 @@
         <v>475</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="R11" s="1">
         <v>15044466025</v>
       </c>
       <c r="S11" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="T11" s="1">
         <v>35801</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>34</v>
@@ -15058,19 +15257,19 @@
         <v>55</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AG11" s="15" t="s">
         <v>883</v>
@@ -15110,10 +15309,10 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>482</v>
@@ -15137,10 +15336,10 @@
         <v>475</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>230</v>
@@ -15149,19 +15348,19 @@
         <v>15044466025</v>
       </c>
       <c r="S12" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="T12" s="1">
         <v>35801</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>163</v>
@@ -15199,7 +15398,7 @@
       </c>
       <c r="AZ12" s="9"/>
       <c r="BA12" s="9" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="BB12" s="9" t="s">
         <v>851</v>
@@ -15210,10 +15409,10 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>482</v>
@@ -15231,10 +15430,10 @@
         <v>475</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>201</v>
@@ -15243,19 +15442,19 @@
         <v>15044466025</v>
       </c>
       <c r="S13" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="T13" s="1">
         <v>35801</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>163</v>
@@ -15293,7 +15492,7 @@
       </c>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="BB13" s="9" t="s">
         <v>851</v>
@@ -15304,10 +15503,10 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>482</v>
@@ -15325,25 +15524,25 @@
         <v>474</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="R14" s="1">
         <v>15044466025</v>
       </c>
       <c r="S14" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="T14" s="1">
         <v>35801</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>34</v>
@@ -15361,19 +15560,19 @@
         <v>55</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF14" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>1330</v>
       </c>
       <c r="AG14" s="15" t="s">
         <v>883</v>
@@ -15413,25 +15612,25 @@
         <v>628</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ14" s="9"/>
       <c r="BA14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BB14" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC14" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>482</v>
@@ -15449,19 +15648,19 @@
         <v>474</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="R15" s="1">
         <v>15044466025</v>
       </c>
       <c r="S15" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="T15" s="1">
         <v>35801</v>
@@ -15485,19 +15684,19 @@
         <v>55</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="AC15" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AF15" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="AG15" s="15" t="s">
         <v>883</v>
@@ -15537,25 +15736,25 @@
         <v>628</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ15" s="9"/>
       <c r="BA15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BB15" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC15" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>482</v>
@@ -15573,31 +15772,31 @@
         <v>474</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="R16" s="1">
         <v>15044466025</v>
       </c>
       <c r="S16" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="T16" s="1">
         <v>35801</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>163</v>
@@ -15646,25 +15845,25 @@
         <v>628</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ16" s="9"/>
       <c r="BA16" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="BB16" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>482</v>
@@ -15682,10 +15881,10 @@
         <v>474</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>274</v>
@@ -15694,19 +15893,19 @@
         <v>15044466025</v>
       </c>
       <c r="S17" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="T17" s="1">
         <v>35801</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>163</v>
@@ -15755,17 +15954,17 @@
         <v>628</v>
       </c>
       <c r="AY17" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9" t="s">
         <v>479</v>
       </c>
       <c r="BB17" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BC17" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -16502,6 +16701,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4359E-4B78-467E-B2B7-C2E3C34B28DE}">
+  <dimension ref="A1:AB24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="38.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="N9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N13" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="N15" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N16" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="17" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q17" s="9"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q18" s="9"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q19" s="9"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q21" s="9"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q22" s="9"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Q23" s="9"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="17:26" x14ac:dyDescent="0.25">
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
@@ -16629,7 +17948,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>422</v>
@@ -16641,16 +17960,16 @@
         <v>423</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="N2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>413</v>
@@ -16682,7 +18001,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>422</v>
@@ -16700,16 +18019,16 @@
         <v>429</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="N3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="O3" s="1">
         <v>35801</v>
@@ -16738,7 +18057,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>422</v>
@@ -16750,16 +18069,16 @@
         <v>423</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>379</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="N4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="O4" s="1">
         <v>35801</v>
@@ -16792,15 +18111,15 @@
         <v>436</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>422</v>
@@ -16812,16 +18131,16 @@
         <v>429</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>999</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>55</v>
@@ -16854,15 +18173,15 @@
         <v>440</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>422</v>
@@ -16874,16 +18193,16 @@
         <v>423</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="N6" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>56</v>
@@ -16916,15 +18235,15 @@
         <v>445</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>422</v>
@@ -16936,16 +18255,16 @@
         <v>429</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -16975,15 +18294,15 @@
         <v>449</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>422</v>
@@ -16995,16 +18314,16 @@
         <v>423</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>274</v>
       </c>
       <c r="N8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>58</v>
@@ -17037,15 +18356,15 @@
         <v>436</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>422</v>
@@ -17057,16 +18376,16 @@
         <v>423</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>397</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="N9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>59</v>
@@ -17099,15 +18418,15 @@
         <v>436</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>422</v>
@@ -17119,16 +18438,16 @@
         <v>423</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>410</v>
       </c>
       <c r="N10" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>59</v>
@@ -17161,15 +18480,15 @@
         <v>436</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>422</v>
@@ -17181,16 +18500,16 @@
         <v>423</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N11" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>60</v>
@@ -17223,15 +18542,15 @@
         <v>436</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>422</v>
@@ -17243,16 +18562,16 @@
         <v>423</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N12" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>60</v>
@@ -17285,15 +18604,15 @@
         <v>436</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>422</v>
@@ -17308,16 +18627,16 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="N13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>61</v>
@@ -17347,15 +18666,15 @@
         <v>436</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>422</v>
@@ -17370,16 +18689,16 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="N14" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>61</v>
@@ -17409,15 +18728,15 @@
         <v>436</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>422</v>
@@ -17432,16 +18751,16 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>268</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="N15" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>62</v>
@@ -17474,15 +18793,15 @@
         <v>440</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>422</v>
@@ -17497,16 +18816,16 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N16" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>64</v>
@@ -17536,15 +18855,15 @@
         <v>440</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>422</v>
@@ -17559,16 +18878,16 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="N17" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>63</v>
@@ -17601,15 +18920,15 @@
         <v>440</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>422</v>
@@ -17624,16 +18943,16 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N18" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>64</v>
@@ -17663,15 +18982,15 @@
         <v>440</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>422</v>
@@ -17686,16 +19005,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="N19" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>65</v>
@@ -17728,10 +19047,10 @@
         <v>440</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -17885,7 +19204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C91F198-B38A-4DA8-A78C-ABC8E5EDC3C9}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
@@ -18612,7 +19931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AF431-8396-45B8-B7F5-A36FBD82D208}">
   <dimension ref="A1:V36"/>
   <sheetViews>
@@ -18729,22 +20048,22 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>737</v>
@@ -18752,7 +20071,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>605</v>
@@ -18761,13 +20080,13 @@
         <v>397</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>255</v>
@@ -18775,22 +20094,22 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>631</v>
@@ -18801,19 +20120,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>162</v>
@@ -18836,19 +20155,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>799</v>
@@ -18880,19 +20199,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>801</v>
@@ -18918,19 +20237,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>805</v>
@@ -18953,19 +20272,19 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>167</v>
@@ -19144,7 +20463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B5EB0-EC16-485B-8EB9-BF6E6861C707}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -19261,19 +20580,19 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>162</v>
@@ -19299,19 +20618,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>162</v>
@@ -19337,19 +20656,19 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>719</v>
@@ -19375,19 +20694,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>713</v>
       </c>
       <c r="E5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>719</v>
@@ -19413,19 +20732,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E6" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>164</v>
@@ -19451,19 +20770,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>167</v>
@@ -19498,19 +20817,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>670</v>
@@ -19545,19 +20864,19 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E9" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>803</v>
@@ -19639,7 +20958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB1861-4C9E-41AD-B401-5FCF8E78F9CE}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
@@ -19782,7 +21101,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="R2"/>
     </row>
@@ -19925,7 +21244,7 @@
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="R5"/>
     </row>
@@ -20150,7 +21469,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="R9"/>
     </row>
@@ -20300,7 +21619,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20373,7 +21692,7 @@
     </row>
     <row r="15" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>883</v>
@@ -20382,13 +21701,13 @@
         <v>605</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>850</v>
@@ -20417,7 +21736,7 @@
     </row>
     <row r="16" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>883</v>
@@ -20426,13 +21745,13 @@
         <v>605</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>855</v>
@@ -20461,7 +21780,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20697,7 +22016,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20770,19 +22089,19 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E23" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>715</v>
@@ -20808,19 +22127,19 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>762</v>
       </c>
       <c r="E24" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>719</v>
@@ -20850,11 +22169,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435D0C8-2A67-4DFF-8E91-310A628ECB70}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
@@ -20869,7 +22188,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -20877,7 +22196,7 @@
         <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -20885,7 +22204,7 @@
         <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20893,7 +22212,7 @@
         <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -20976,7 +22295,7 @@
         <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -21016,45 +22335,45 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B28" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -21062,7 +22381,7 @@
         <v>489</v>
       </c>
       <c r="B36" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -21115,7 +22434,7 @@
         <v>512</v>
       </c>
       <c r="B46" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -21158,7 +22477,7 @@
         <v>600</v>
       </c>
       <c r="B54" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -21168,65 +22487,65 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B60" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -21234,7 +22553,7 @@
         <v>787</v>
       </c>
       <c r="B68" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -21357,7 +22676,7 @@
         <v>839</v>
       </c>
       <c r="B92" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -21400,7 +22719,7 @@
         <v>546</v>
       </c>
       <c r="B100" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -21483,7 +22802,7 @@
         <v>582</v>
       </c>
       <c r="B116" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -21523,45 +22842,45 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B124" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -21569,7 +22888,7 @@
         <v>639</v>
       </c>
       <c r="B132" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -21632,7 +22951,7 @@
         <v>690</v>
       </c>
       <c r="B144" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -21675,7 +22994,7 @@
         <v>865</v>
       </c>
       <c r="B152" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -21765,230 +23084,230 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B170" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B178" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B179" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B180" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B196" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B204" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -22148,7 +23467,7 @@
         <v>473</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>211</v>
@@ -22160,7 +23479,7 @@
         <v>15044466025</v>
       </c>
       <c r="R2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="S2" s="1">
         <v>35801</v>
@@ -22213,19 +23532,19 @@
         <v>473</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Q3" s="1">
         <v>15044466025</v>
       </c>
       <c r="R3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>55</v>
@@ -22278,19 +23597,19 @@
         <v>473</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="Q4" s="1">
         <v>15044466025</v>
       </c>
       <c r="R4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>56</v>
@@ -22343,19 +23662,19 @@
         <v>474</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Q5" s="1">
         <v>15044466025</v>
       </c>
       <c r="R5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>57</v>
@@ -22408,10 +23727,10 @@
         <v>474</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>812</v>
@@ -22420,7 +23739,7 @@
         <v>15044466025</v>
       </c>
       <c r="R6" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>58</v>
@@ -22473,10 +23792,10 @@
         <v>475</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>394</v>
@@ -22485,7 +23804,7 @@
         <v>15044466025</v>
       </c>
       <c r="R7" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>60</v>
@@ -22538,10 +23857,10 @@
         <v>475</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>325</v>
@@ -22550,7 +23869,7 @@
         <v>15044466025</v>
       </c>
       <c r="R8" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>60</v>
@@ -22621,10 +23940,10 @@
         <v>476</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>633</v>
@@ -22633,7 +23952,7 @@
         <v>15044466025</v>
       </c>
       <c r="R9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>61</v>
@@ -22701,10 +24020,10 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24496,7 +25815,7 @@
     </row>
     <row r="4" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>486</v>
@@ -24523,16 +25842,16 @@
         <v>599</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="Q4" s="1">
         <v>15044466025</v>
       </c>
       <c r="R4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>634</v>
@@ -24544,7 +25863,7 @@
         <v>38</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -24571,12 +25890,12 @@
         <v>715</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>486</v>
@@ -24601,28 +25920,28 @@
         <v>599</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="Q5" s="1">
         <v>15044466025</v>
       </c>
       <c r="R5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>40</v>
@@ -24673,7 +25992,7 @@
     </row>
     <row r="6" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>486</v>
@@ -24698,16 +26017,16 @@
         <v>599</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="Q6" s="1">
         <v>15044466025</v>
       </c>
       <c r="R6" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>634</v>
@@ -24716,22 +26035,22 @@
         <v>255</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>724</v>
@@ -24773,7 +26092,7 @@
     </row>
     <row r="7" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>486</v>
@@ -24796,28 +26115,28 @@
         <v>599</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="Q7" s="1">
         <v>15044466025</v>
       </c>
       <c r="R7" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>40</v>
@@ -24863,7 +26182,7 @@
         <v>805</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
@@ -25149,7 +26468,7 @@
     </row>
     <row r="2" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>798</v>
@@ -25164,48 +26483,48 @@
         <v>800</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J2" s="1"/>
       <c r="N2" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>255</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>636</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>605</v>
@@ -25227,7 +26546,7 @@
     </row>
     <row r="3" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>798</v>
@@ -25242,36 +26561,36 @@
         <v>800</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="1"/>
       <c r="N3" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>40</v>
@@ -25294,7 +26613,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>68</v>
@@ -25302,7 +26621,7 @@
     </row>
     <row r="4" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>798</v>
@@ -25317,48 +26636,48 @@
         <v>800</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J4" s="1"/>
       <c r="N4" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>255</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>603</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>605</v>
@@ -25372,7 +26691,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="9" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>40</v>
@@ -25380,7 +26699,7 @@
     </row>
     <row r="5" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>798</v>
@@ -25395,36 +26714,36 @@
         <v>800</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J5" s="1"/>
       <c r="N5" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>603</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>40</v>
@@ -25447,15 +26766,15 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="9" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>798</v>
@@ -25470,48 +26789,48 @@
         <v>800</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J6" s="1"/>
       <c r="N6" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>236</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>255</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>724</v>
@@ -25529,7 +26848,7 @@
         <v>800</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>255</v>
@@ -25540,7 +26859,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>40</v>
@@ -25548,7 +26867,7 @@
     </row>
     <row r="7" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>798</v>
@@ -25563,36 +26882,36 @@
         <v>800</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J7" s="1"/>
       <c r="N7" s="10" t="s">
         <v>463</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>767</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>40</v>
@@ -25619,7 +26938,7 @@
         <v>800</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AM7" s="9" t="s">
         <v>255</v>
@@ -25630,15 +26949,15 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>798</v>
@@ -25653,7 +26972,7 @@
         <v>800</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J8" s="1"/>
       <c r="N8" s="10" t="s">
@@ -25667,34 +26986,34 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>255</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>603</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>724</v>
@@ -25712,7 +27031,7 @@
         <v>800</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AM8" s="9" t="s">
         <v>255</v>
@@ -25723,7 +27042,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>40</v>
@@ -25731,7 +27050,7 @@
     </row>
     <row r="9" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>798</v>
@@ -25746,7 +27065,7 @@
         <v>800</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J9" s="1"/>
       <c r="N9" s="10" t="s">
@@ -25756,26 +27075,26 @@
         <v>863</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>603</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>40</v>
@@ -25802,7 +27121,7 @@
         <v>800</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AM9" s="9" t="s">
         <v>255</v>
@@ -25813,10 +27132,10 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -25879,11 +27198,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC1DC35-C6C2-40B8-AE11-AD6A7D57D017}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25983,7 +27302,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>18</v>
@@ -26027,7 +27346,7 @@
     </row>
     <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>798</v>
@@ -26041,33 +27360,33 @@
       <c r="H2" s="1"/>
       <c r="J2" s="1"/>
       <c r="N2" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>38</v>
@@ -26084,7 +27403,7 @@
     </row>
     <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>798</v>
@@ -26098,33 +27417,33 @@
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
       <c r="N3" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>384</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>38</v>
@@ -26141,7 +27460,7 @@
     </row>
     <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>798</v>
@@ -26156,37 +27475,37 @@
         <v>800</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J4" s="1"/>
       <c r="N4" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>403</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>38</v>
@@ -26203,7 +27522,7 @@
     </row>
     <row r="5" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>798</v>
@@ -26218,37 +27537,37 @@
         <v>800</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J5" s="1"/>
       <c r="N5" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>335</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>38</v>
@@ -26265,7 +27584,7 @@
     </row>
     <row r="6" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>486</v>
@@ -26289,13 +27608,13 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -26305,7 +27624,7 @@
         <v>521</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>38</v>
@@ -26322,7 +27641,7 @@
     </row>
     <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>798</v>
@@ -26345,7 +27664,7 @@
         <v>305</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>406</v>
@@ -26355,23 +27674,23 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>1408</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>1411</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>38</v>
@@ -26388,7 +27707,7 @@
     </row>
     <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>798</v>
@@ -26402,7 +27721,7 @@
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>51</v>
@@ -26411,33 +27730,33 @@
         <v>51</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>38</v>
@@ -26454,7 +27773,7 @@
     </row>
     <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>798</v>
@@ -26463,34 +27782,34 @@
         <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J9" s="1"/>
       <c r="N9" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>636</v>
@@ -26510,7 +27829,7 @@
     </row>
     <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>798</v>
@@ -26533,33 +27852,33 @@
         <v>305</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>38</v>
@@ -26576,7 +27895,7 @@
     </row>
     <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>798</v>
@@ -26590,7 +27909,7 @@
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>261</v>
@@ -26599,33 +27918,33 @@
         <v>261</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>38</v>
@@ -26642,7 +27961,7 @@
     </row>
     <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>798</v>
@@ -26651,27 +27970,27 @@
         <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J12" s="1"/>
       <c r="N12" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>255</v>
@@ -26684,7 +28003,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>38</v>
@@ -26693,18 +28012,18 @@
         <v>38</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>798</v>
@@ -26713,27 +28032,27 @@
         <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J13" s="1"/>
       <c r="N13" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>781</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>255</v>
@@ -26746,7 +28065,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>38</v>
@@ -26755,18 +28074,18 @@
         <v>38</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>798</v>
@@ -26775,27 +28094,27 @@
         <v>393</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J14" s="1"/>
       <c r="N14" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>367</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>255</v>
@@ -26808,7 +28127,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>38</v>
@@ -26817,18 +28136,18 @@
         <v>38</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>798</v>
@@ -26837,27 +28156,27 @@
         <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J15" s="1"/>
       <c r="N15" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>255</v>
@@ -26870,7 +28189,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>38</v>
@@ -26879,18 +28198,18 @@
         <v>38</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>798</v>
@@ -26899,11 +28218,11 @@
         <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>51</v>
@@ -26912,23 +28231,23 @@
         <v>261</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>390</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>255</v>
@@ -26941,7 +28260,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>38</v>
@@ -26950,18 +28269,18 @@
         <v>38</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>798</v>
@@ -26970,11 +28289,11 @@
         <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>51</v>
@@ -26983,7 +28302,7 @@
         <v>51</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>848</v>
@@ -26993,13 +28312,13 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="V17" s="9" t="s">
         <v>255</v>
@@ -27012,7 +28331,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>38</v>
@@ -27021,18 +28340,18 @@
         <v>38</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>798</v>
@@ -27041,11 +28360,11 @@
         <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>261</v>
@@ -27054,23 +28373,23 @@
         <v>51</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>255</v>
@@ -27083,7 +28402,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>38</v>
@@ -27092,18 +28411,18 @@
         <v>38</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>798</v>
@@ -27112,27 +28431,27 @@
         <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J19" s="1"/>
       <c r="N19" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>184</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>34</v>
@@ -27150,7 +28469,7 @@
         <v>55</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>38</v>
@@ -27159,18 +28478,18 @@
         <v>38</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>798</v>
@@ -27184,33 +28503,33 @@
       <c r="H20" s="1"/>
       <c r="J20" s="1"/>
       <c r="N20" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>38</v>
@@ -27227,7 +28546,7 @@
     </row>
     <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>798</v>
@@ -27236,27 +28555,27 @@
         <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J21" s="1"/>
       <c r="N21" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>34</v>
@@ -27274,7 +28593,7 @@
         <v>55</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>38</v>
@@ -27283,18 +28602,18 @@
         <v>38</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>798</v>
@@ -27303,11 +28622,11 @@
         <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J22" s="1"/>
       <c r="N22" s="10" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>90</v>
@@ -27317,13 +28636,13 @@
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>255</v>
@@ -27333,7 +28652,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>38</v>
@@ -27342,18 +28661,18 @@
         <v>38</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="23" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>798</v>
@@ -27362,27 +28681,27 @@
         <v>51</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J23" s="1"/>
       <c r="N23" s="10" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>849</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>255</v>
@@ -27395,7 +28714,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>38</v>
@@ -27404,13 +28723,13 @@
         <v>38</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6128950-C443-4953-8DAA-967E862F6045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FD1FE6A-A9FD-4897-A6A5-5A7EBF42261F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin payment types" sheetId="1" r:id="rId1"/>
@@ -16,31 +16,32 @@
     <sheet name="Admin booking with certificates" sheetId="9" r:id="rId6"/>
     <sheet name="Admin cert + discount" sheetId="19" r:id="rId7"/>
     <sheet name="Admin groupon" sheetId="26" r:id="rId8"/>
-    <sheet name="Admin certificates" sheetId="11" r:id="rId9"/>
-    <sheet name="Admin certificates declines" sheetId="12" r:id="rId10"/>
-    <sheet name="Customer payment types" sheetId="4" r:id="rId11"/>
-    <sheet name="Customer declines" sheetId="5" r:id="rId12"/>
-    <sheet name="Customer not finished" sheetId="23" r:id="rId13"/>
-    <sheet name="Customer valid discounts" sheetId="8" r:id="rId14"/>
-    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId15"/>
-    <sheet name="Customer certificates" sheetId="13" r:id="rId16"/>
-    <sheet name="Customer certificates declines" sheetId="14" r:id="rId17"/>
-    <sheet name="Customer booking with cert" sheetId="20" r:id="rId18"/>
-    <sheet name="Customer booking cert + disc" sheetId="25" r:id="rId19"/>
-    <sheet name="Customer groupon" sheetId="27" r:id="rId20"/>
-    <sheet name="Center payment types" sheetId="15" r:id="rId21"/>
-    <sheet name="Center declines" sheetId="16" r:id="rId22"/>
-    <sheet name="Center certificates" sheetId="17" r:id="rId23"/>
-    <sheet name="Center certificates declines" sheetId="18" r:id="rId24"/>
-    <sheet name="Failed declines" sheetId="21" r:id="rId25"/>
-    <sheet name="Emails table" sheetId="24" r:id="rId26"/>
+    <sheet name="Addons" sheetId="28" r:id="rId9"/>
+    <sheet name="Admin certificates" sheetId="11" r:id="rId10"/>
+    <sheet name="Admin certificates declines" sheetId="12" r:id="rId11"/>
+    <sheet name="Customer payment types" sheetId="4" r:id="rId12"/>
+    <sheet name="Customer declines" sheetId="5" r:id="rId13"/>
+    <sheet name="Customer not finished" sheetId="23" r:id="rId14"/>
+    <sheet name="Customer valid discounts" sheetId="8" r:id="rId15"/>
+    <sheet name="Customer invalid discounts" sheetId="10" r:id="rId16"/>
+    <sheet name="Customer certificates" sheetId="13" r:id="rId17"/>
+    <sheet name="Customer certificates declines" sheetId="14" r:id="rId18"/>
+    <sheet name="Customer booking with cert" sheetId="20" r:id="rId19"/>
+    <sheet name="Customer booking cert + disc" sheetId="25" r:id="rId20"/>
+    <sheet name="Customer groupon" sheetId="27" r:id="rId21"/>
+    <sheet name="Center payment types" sheetId="15" r:id="rId22"/>
+    <sheet name="Center declines" sheetId="16" r:id="rId23"/>
+    <sheet name="Center certificates" sheetId="17" r:id="rId24"/>
+    <sheet name="Center certificates declines" sheetId="18" r:id="rId25"/>
+    <sheet name="Failed declines" sheetId="21" r:id="rId26"/>
+    <sheet name="Emails table" sheetId="24" r:id="rId27"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6818" uniqueCount="1556">
   <si>
     <t>id_testdata</t>
   </si>
@@ -4663,6 +4664,51 @@
   </si>
   <si>
     <t>godo-842ib@mailinator.com</t>
+  </si>
+  <si>
+    <t>addon_name</t>
+  </si>
+  <si>
+    <t>addon_type</t>
+  </si>
+  <si>
+    <t>GoDo-206</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>godo-206ab@mailinator.com</t>
+  </si>
+  <si>
+    <t>New type, $10.99</t>
+  </si>
+  <si>
+    <t>addon</t>
+  </si>
+  <si>
+    <t>$10.99</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$104.99</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>GoDo-207</t>
+  </si>
+  <si>
+    <t>GoDo-221</t>
+  </si>
+  <si>
+    <t>GoDo-236</t>
+  </si>
+  <si>
+    <t>Inactive type, $50</t>
   </si>
 </sst>
 </file>
@@ -6562,6 +6608,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E11" t="s">
+        <v>745</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E14" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>756</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E16" t="s">
+        <v>760</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="1">
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E19" t="s">
+        <v>769</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" t="s">
+        <v>774</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" t="s">
+        <v>777</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E23" t="s">
+        <v>780</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E25" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B17890C-C3E9-4501-8241-BF8928D0B274}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -7056,7 +8099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
@@ -8236,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -8932,7 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D291D8-D7EB-4761-A388-783D2E185CA1}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
@@ -9600,7 +10643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5157F94-0C19-4E79-93C8-C8C1FAC3D8AF}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -10629,7 +11672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A7A26-CD8B-4B4F-912F-0FE24C8401B2}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
@@ -11216,7 +12259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4B839-C73B-41C2-80DD-208DE6D431F6}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -12198,11 +13241,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAFE5F-B530-4B77-9E58-E2B81982123D}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
@@ -12760,7 +13803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5B620-B0D6-437E-AF7B-E893E6927C23}">
   <dimension ref="A1:BB10"/>
   <sheetViews>
@@ -13954,7 +14997,734 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R2" sqref="R2:R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="18" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R2" t="s">
+        <v>464</v>
+      </c>
+      <c r="S2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R3" t="s">
+        <v>465</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R4" t="s">
+        <v>466</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R5" t="s">
+        <v>467</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R7" t="s">
+        <v>471</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R8" t="s">
+        <v>471</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R9" t="s">
+        <v>472</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66885A8D-1970-49DC-A0CB-66F933E2B20D}">
   <dimension ref="A1:BC17"/>
   <sheetViews>
@@ -15973,734 +17743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="18" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R2" t="s">
-        <v>464</v>
-      </c>
-      <c r="S2" s="1">
-        <v>35801</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>35801</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R3" t="s">
-        <v>465</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R4" t="s">
-        <v>466</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R5" t="s">
-        <v>467</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R6" t="s">
-        <v>468</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R7" t="s">
-        <v>471</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R8" t="s">
-        <v>471</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>35801</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="R9" t="s">
-        <v>472</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="R15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4359E-4B78-467E-B2B7-C2E3C34B28DE}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
@@ -17820,7 +18863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C151C05-E2F4-455A-AEB9-6524417D8442}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
@@ -19204,7 +20247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C91F198-B38A-4DA8-A78C-ABC8E5EDC3C9}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
@@ -19931,7 +20974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AF431-8396-45B8-B7F5-A36FBD82D208}">
   <dimension ref="A1:V36"/>
   <sheetViews>
@@ -20463,7 +21506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B5EB0-EC16-485B-8EB9-BF6E6861C707}">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -20958,7 +22001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB1861-4C9E-41AD-B401-5FCF8E78F9CE}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
@@ -22169,7 +23212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435D0C8-2A67-4DFF-8E91-310A628ECB70}">
   <dimension ref="A1:B211"/>
   <sheetViews>
@@ -28739,995 +29782,447 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AB0DF-12AC-414D-A33D-AB09F26711FA}">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5D6153-C552-49F4-A600-7B60A2A6EEB8}">
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="31" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="15" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>604</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>796</v>
+        <v>1541</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>611</v>
+        <v>1542</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>612</v>
+        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>613</v>
+        <v>20</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>615</v>
+        <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>616</v>
+        <v>22</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>712</v>
+        <v>1543</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>605</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="E2" t="s">
-        <v>787</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>715</v>
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>716</v>
+        <v>1552</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>605</v>
+        <v>482</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>720</v>
+        <v>1553</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>605</v>
+        <v>422</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>723</v>
+        <v>1554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>795</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>804</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N5"/>
       <c r="Q5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E6" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E7" t="s">
-        <v>792</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E8" t="s">
-        <v>793</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>794</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E10" t="s">
-        <v>742</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E11" t="s">
-        <v>745</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E12" t="s">
-        <v>748</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E13" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E14" t="s">
-        <v>754</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" t="s">
-        <v>756</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E16" t="s">
-        <v>760</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E17" t="s">
-        <v>763</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E18" t="s">
-        <v>766</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="1">
-        <v>35801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E19" t="s">
-        <v>769</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" t="s">
-        <v>774</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E22" t="s">
-        <v>777</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E23" t="s">
-        <v>780</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E24" t="s">
-        <v>783</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E25" t="s">
-        <v>786</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="7:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="7:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="7:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="7:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
